--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_insurance_life.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07780000000000001</v>
+        <v>-0.0818</v>
       </c>
       <c r="E2">
-        <v>0.06849999999999999</v>
+        <v>-0.102</v>
       </c>
       <c r="F2">
-        <v>-0.027</v>
+        <v>0.02155</v>
       </c>
       <c r="G2">
-        <v>0.07402568310188436</v>
+        <v>0.10865137667039</v>
       </c>
       <c r="H2">
-        <v>0.07402568310188436</v>
+        <v>0.10865137667039</v>
       </c>
       <c r="I2">
-        <v>0.06954645481993681</v>
+        <v>0.08488828736278817</v>
       </c>
       <c r="J2">
-        <v>0.06422127145126892</v>
+        <v>0.07209348667685544</v>
       </c>
       <c r="K2">
-        <v>7131.55</v>
+        <v>2957.57</v>
       </c>
       <c r="L2">
-        <v>0.06339482391092163</v>
+        <v>0.04018950789910668</v>
       </c>
       <c r="M2">
-        <v>3372.07</v>
+        <v>3072.412</v>
       </c>
       <c r="N2">
-        <v>0.04089310531332539</v>
+        <v>0.03811726932343476</v>
       </c>
       <c r="O2">
-        <v>0.4728383030337023</v>
+        <v>1.038829850181061</v>
       </c>
       <c r="P2">
-        <v>3372.07</v>
+        <v>3032.73</v>
       </c>
       <c r="Q2">
-        <v>0.04089310531332539</v>
+        <v>0.03762496247093824</v>
       </c>
       <c r="R2">
-        <v>0.4728383030337023</v>
+        <v>1.025412754389583</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>39.68199999999991</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.01291558553996011</v>
       </c>
       <c r="U2">
-        <v>33201.9</v>
+        <v>45693.6</v>
       </c>
       <c r="V2">
-        <v>0.4026395636218994</v>
+        <v>0.5668885740445287</v>
       </c>
       <c r="W2">
-        <v>0.1387784925443608</v>
+        <v>0.1185683796126239</v>
       </c>
       <c r="X2">
-        <v>0.09009833266022753</v>
+        <v>0.07516690505239665</v>
       </c>
       <c r="Y2">
-        <v>0.04868015988413325</v>
+        <v>0.04340147456022724</v>
       </c>
       <c r="Z2">
-        <v>3.598612404615189</v>
+        <v>1.731965762288543</v>
       </c>
       <c r="AA2">
-        <v>0.1103296650201889</v>
+        <v>0.05728703015591918</v>
       </c>
       <c r="AB2">
-        <v>0.07429185915926503</v>
+        <v>0.06091989149169285</v>
       </c>
       <c r="AC2">
-        <v>0.03634060332568459</v>
+        <v>-0.003580702335058996</v>
       </c>
       <c r="AD2">
-        <v>30017</v>
+        <v>30634.81</v>
       </c>
       <c r="AE2">
-        <v>1629.536010975327</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>31646.53601097532</v>
+        <v>30634.81</v>
       </c>
       <c r="AG2">
-        <v>-1555.363989024678</v>
+        <v>-15058.79</v>
       </c>
       <c r="AH2">
-        <v>0.2773405513212725</v>
+        <v>0.2753962840913453</v>
       </c>
       <c r="AI2">
-        <v>0.4026198165714782</v>
+        <v>0.4212266840612526</v>
       </c>
       <c r="AJ2">
-        <v>-0.01922451581271801</v>
+        <v>-0.2297459120325893</v>
       </c>
       <c r="AK2">
-        <v>-0.0342593933715387</v>
+        <v>-0.5570313098204817</v>
       </c>
       <c r="AL2">
-        <v>1299.89</v>
+        <v>1119.99</v>
       </c>
       <c r="AM2">
-        <v>1299.89</v>
+        <v>1119.99</v>
       </c>
       <c r="AN2">
-        <v>3.573073805275393</v>
+        <v>4.636144749705652</v>
       </c>
       <c r="AO2">
-        <v>6.103631845771565</v>
+        <v>5.577710515272457</v>
       </c>
       <c r="AP2">
-        <v>-0.1851427633292041</v>
+        <v>-2.278934656210369</v>
       </c>
       <c r="AQ2">
-        <v>6.103631845771565</v>
+        <v>5.577710515272457</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chesnara plc (LSE:CSN)</t>
+          <t>Just Group plc (LSE:JUST)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,47 +727,44 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0348</v>
-      </c>
-      <c r="E3">
-        <v>0.00617</v>
+      <c r="F3">
+        <v>-0.0138</v>
       </c>
       <c r="G3">
-        <v>0.0558689229116304</v>
+        <v>0.1734107935938271</v>
       </c>
       <c r="H3">
-        <v>0.0558689229116304</v>
+        <v>0.1734107935938271</v>
       </c>
       <c r="I3">
-        <v>0.1187286955079798</v>
+        <v>0.2079090215782154</v>
       </c>
       <c r="J3">
-        <v>0.100216483898881</v>
+        <v>0.1693494536664662</v>
       </c>
       <c r="K3">
-        <v>72</v>
+        <v>553</v>
       </c>
       <c r="L3">
-        <v>0.09669621273166801</v>
+        <v>0.1240410928177291</v>
       </c>
       <c r="M3">
-        <v>39.4</v>
+        <v>33.7</v>
       </c>
       <c r="N3">
-        <v>0.06273885350318471</v>
+        <v>0.03401635207429091</v>
       </c>
       <c r="O3">
-        <v>0.5472222222222222</v>
+        <v>0.06094032549728753</v>
       </c>
       <c r="P3">
-        <v>39.4</v>
+        <v>33.7</v>
       </c>
       <c r="Q3">
-        <v>0.06273885350318471</v>
+        <v>0.03401635207429091</v>
       </c>
       <c r="R3">
-        <v>0.5472222222222222</v>
+        <v>0.06094032549728753</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>246.9</v>
+        <v>2086.4</v>
       </c>
       <c r="V3">
-        <v>0.3931528662420382</v>
+        <v>2.105985666700313</v>
       </c>
       <c r="W3">
-        <v>0.1219718787057429</v>
+        <v>0.2038935181771256</v>
       </c>
       <c r="X3">
-        <v>0.08460280871089459</v>
+        <v>0.0958609313413455</v>
       </c>
       <c r="Y3">
-        <v>0.03736906999484826</v>
+        <v>0.1080325868357801</v>
       </c>
       <c r="Z3">
-        <v>1.539861229259864</v>
+        <v>2.339525608732158</v>
       </c>
       <c r="AA3">
-        <v>0.1543194780886322</v>
+        <v>0.3961973836774977</v>
       </c>
       <c r="AB3">
-        <v>0.07419761300204958</v>
+        <v>0.06333563903058731</v>
       </c>
       <c r="AC3">
-        <v>0.08012186508658259</v>
+        <v>0.3328617446469104</v>
       </c>
       <c r="AD3">
-        <v>132</v>
+        <v>845.5</v>
       </c>
       <c r="AE3">
-        <v>4.148066623791164</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>136.1480666237912</v>
+        <v>845.5</v>
       </c>
       <c r="AG3">
-        <v>-110.7519333762089</v>
+        <v>-1240.9</v>
       </c>
       <c r="AH3">
-        <v>0.1781697455904448</v>
+        <v>0.4604618233307918</v>
       </c>
       <c r="AI3">
-        <v>0.1834513525625166</v>
+        <v>0.2108531384822564</v>
       </c>
       <c r="AJ3">
-        <v>-0.2141176362419578</v>
+        <v>4.959632294164668</v>
       </c>
       <c r="AK3">
-        <v>-0.2236292089562868</v>
+        <v>-0.6451260722641019</v>
       </c>
       <c r="AL3">
-        <v>4.19</v>
+        <v>216.7</v>
       </c>
       <c r="AM3">
-        <v>4.19</v>
+        <v>216.7</v>
       </c>
       <c r="AN3">
-        <v>1.461227652626335</v>
+        <v>0.9103143841515935</v>
       </c>
       <c r="AO3">
-        <v>21.26491646778043</v>
+        <v>4.277341947392709</v>
       </c>
       <c r="AP3">
-        <v>-1.226013542660196</v>
+        <v>-1.336024978466839</v>
       </c>
       <c r="AQ3">
-        <v>21.26491646778043</v>
+        <v>4.277341947392709</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Just Group plc (LSE:JUST)</t>
+          <t>Phoenix Group Holdings plc (LSE:PHNX)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -861,44 +858,50 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.287</v>
+      </c>
+      <c r="E4">
+        <v>0.206</v>
+      </c>
       <c r="F4">
-        <v>-0.076</v>
+        <v>-0.06619999999999999</v>
       </c>
       <c r="G4">
-        <v>0.04120910481495856</v>
+        <v>0.06855738402707694</v>
       </c>
       <c r="H4">
-        <v>0.04120910481495856</v>
+        <v>0.06855738402707694</v>
       </c>
       <c r="I4">
-        <v>0.05960113979544517</v>
+        <v>0.09758408337280911</v>
       </c>
       <c r="J4">
-        <v>0.05960113979544517</v>
+        <v>0.07374876899304557</v>
       </c>
       <c r="K4">
-        <v>-11.7</v>
+        <v>685.9</v>
       </c>
       <c r="L4">
-        <v>-0.002671171891052716</v>
+        <v>0.04708943491305034</v>
       </c>
       <c r="M4">
-        <v>5.85</v>
+        <v>454.4</v>
       </c>
       <c r="N4">
-        <v>0.005401662049861496</v>
+        <v>0.0475936108929039</v>
       </c>
       <c r="O4">
-        <v>-0.5</v>
+        <v>0.6624872430383437</v>
       </c>
       <c r="P4">
-        <v>5.85</v>
+        <v>454.4</v>
       </c>
       <c r="Q4">
-        <v>0.005401662049861496</v>
+        <v>0.0475936108929039</v>
       </c>
       <c r="R4">
-        <v>-0.5</v>
+        <v>0.6624872430383437</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +910,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1579.7</v>
+        <v>8054.3</v>
       </c>
       <c r="V4">
-        <v>1.458633425669437</v>
+        <v>0.8436030374443572</v>
       </c>
       <c r="W4">
-        <v>-0.005014357347962113</v>
+        <v>0.09811887561690866</v>
       </c>
       <c r="X4">
-        <v>0.1076051080489446</v>
+        <v>0.08051248950915564</v>
       </c>
       <c r="Y4">
-        <v>-0.1126194653969067</v>
+        <v>0.01760638610775302</v>
       </c>
       <c r="Z4">
-        <v>2.532427575955509</v>
+        <v>4.638526208521751</v>
       </c>
       <c r="AA4">
-        <v>0.1509355699763646</v>
+        <v>0.3420855978204581</v>
       </c>
       <c r="AB4">
-        <v>0.07667328407414964</v>
+        <v>0.0607589449641641</v>
       </c>
       <c r="AC4">
-        <v>0.07426228590221498</v>
+        <v>0.281326652856294</v>
       </c>
       <c r="AD4">
-        <v>773.1</v>
+        <v>4613.4</v>
       </c>
       <c r="AE4">
-        <v>14.50523790985312</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>787.6052379098531</v>
+        <v>4613.4</v>
       </c>
       <c r="AG4">
-        <v>-792.0947620901469</v>
+        <v>-3440.900000000001</v>
       </c>
       <c r="AH4">
-        <v>0.4210429982490024</v>
+        <v>0.3257843781115607</v>
       </c>
       <c r="AI4">
-        <v>0.2251326488352771</v>
+        <v>0.386673371888358</v>
       </c>
       <c r="AJ4">
-        <v>-2.7228618081315</v>
+        <v>-0.5634723086496579</v>
       </c>
       <c r="AK4">
-        <v>-0.4128277478165523</v>
+        <v>-0.887584801506436</v>
       </c>
       <c r="AL4">
-        <v>243.5</v>
+        <v>234</v>
       </c>
       <c r="AM4">
-        <v>243.5</v>
+        <v>234</v>
       </c>
       <c r="AN4">
-        <v>2.872269282211324</v>
+        <v>3.170939583476527</v>
       </c>
       <c r="AO4">
-        <v>1.071457905544148</v>
+        <v>6.074358974358975</v>
       </c>
       <c r="AP4">
-        <v>-2.942839805655175</v>
+        <v>-2.365042270946457</v>
       </c>
       <c r="AQ4">
-        <v>1.071457905544148</v>
+        <v>6.074358974358975</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phoenix Group Holdings plc (LSE:PHNX)</t>
+          <t>Chesnara plc (LSE:CSN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,124 +996,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.196</v>
+        <v>-0.0818</v>
       </c>
       <c r="E5">
-        <v>0.06849999999999999</v>
-      </c>
-      <c r="F5">
-        <v>-0.14</v>
+        <v>-0.102</v>
       </c>
       <c r="G5">
-        <v>0.02732942039618489</v>
+        <v>0.2860295740454645</v>
       </c>
       <c r="H5">
-        <v>0.02732942039618489</v>
+        <v>0.2860295740454645</v>
       </c>
       <c r="I5">
-        <v>0.04768556984077681</v>
+        <v>0.09335687486206135</v>
       </c>
       <c r="J5">
-        <v>0.04354214800439152</v>
+        <v>0.08265588920593574</v>
       </c>
       <c r="K5">
-        <v>559.1</v>
+        <v>22.4</v>
       </c>
       <c r="L5">
-        <v>0.03536190452096036</v>
+        <v>0.04943721032884572</v>
       </c>
       <c r="M5">
-        <v>457.5</v>
+        <v>39.682</v>
       </c>
       <c r="N5">
-        <v>0.06400839454354669</v>
+        <v>0.06498853586636096</v>
       </c>
       <c r="O5">
-        <v>0.8182793775710964</v>
+        <v>1.771517857142857</v>
       </c>
       <c r="P5">
-        <v>457.5</v>
+        <v>39.6</v>
       </c>
       <c r="Q5">
-        <v>0.06400839454354669</v>
+        <v>0.06485424172944644</v>
       </c>
       <c r="R5">
-        <v>0.8182793775710964</v>
+        <v>1.767857142857143</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.08200000000000074</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.002066428103422225</v>
       </c>
       <c r="U5">
-        <v>6630.8</v>
+        <v>251.5</v>
       </c>
       <c r="V5">
-        <v>0.9277089891570479</v>
+        <v>0.4118899443170652</v>
       </c>
       <c r="W5">
-        <v>0.1165981939896978</v>
+        <v>0.03696369636963696</v>
       </c>
       <c r="X5">
-        <v>0.09345219953618665</v>
+        <v>0.06759593019751652</v>
       </c>
       <c r="Y5">
-        <v>0.02314599445351116</v>
+        <v>-0.03063223382787955</v>
       </c>
       <c r="Z5">
-        <v>2.676999390000452</v>
+        <v>0.9244316408202571</v>
       </c>
       <c r="AA5">
-        <v>0.1165623036470655</v>
+        <v>0.07640971928210055</v>
       </c>
       <c r="AB5">
-        <v>0.07379013629805221</v>
+        <v>0.06060576143334025</v>
       </c>
       <c r="AC5">
-        <v>0.04277216734901332</v>
+        <v>0.01580395784876031</v>
       </c>
       <c r="AD5">
-        <v>2852.9</v>
+        <v>104.8</v>
       </c>
       <c r="AE5">
-        <v>100.26496180723</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2953.16496180723</v>
+        <v>104.8</v>
       </c>
       <c r="AG5">
-        <v>-3677.63503819277</v>
+        <v>-146.7</v>
       </c>
       <c r="AH5">
-        <v>0.2923733212589247</v>
+        <v>0.1464914733016494</v>
       </c>
       <c r="AI5">
-        <v>0.2863768154160406</v>
+        <v>0.1525695152132771</v>
       </c>
       <c r="AJ5">
-        <v>-1.059878432928216</v>
+        <v>-0.3162319465402026</v>
       </c>
       <c r="AK5">
-        <v>-0.9989868096064486</v>
+        <v>-0.3369315571887919</v>
       </c>
       <c r="AL5">
-        <v>195.7</v>
+        <v>3.49</v>
       </c>
       <c r="AM5">
-        <v>195.7</v>
+        <v>3.49</v>
       </c>
       <c r="AN5">
-        <v>3.5688016012009</v>
+        <v>2.454332552693208</v>
       </c>
       <c r="AO5">
-        <v>3.844149207971385</v>
+        <v>12.12034383954155</v>
       </c>
       <c r="AP5">
-        <v>-4.600494168367238</v>
+        <v>-3.43559718969555</v>
       </c>
       <c r="AQ5">
-        <v>3.844149207971385</v>
+        <v>12.12034383954155</v>
       </c>
     </row>
     <row r="6">
@@ -1130,49 +1130,49 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0396</v>
+        <v>-0.123</v>
       </c>
       <c r="E6">
-        <v>0.08449999999999999</v>
+        <v>-0.46</v>
       </c>
       <c r="F6">
-        <v>0.0732</v>
+        <v>0.101</v>
       </c>
       <c r="G6">
-        <v>0.07393010331461772</v>
+        <v>0.08080721828480346</v>
       </c>
       <c r="H6">
-        <v>0.07393010331461772</v>
+        <v>0.08080721828480346</v>
       </c>
       <c r="I6">
-        <v>0.05828516310374643</v>
+        <v>0.04907067429482253</v>
       </c>
       <c r="J6">
-        <v>0.05518508133368713</v>
+        <v>0.04148532197062287</v>
       </c>
       <c r="K6">
-        <v>4053.7</v>
+        <v>143</v>
       </c>
       <c r="L6">
-        <v>0.06442185292486367</v>
+        <v>0.004070247345800245</v>
       </c>
       <c r="M6">
-        <v>1618.9</v>
+        <v>1200</v>
       </c>
       <c r="N6">
-        <v>0.03257475149905429</v>
+        <v>0.02510591558135886</v>
       </c>
       <c r="O6">
-        <v>0.3993635444162124</v>
+        <v>8.391608391608392</v>
       </c>
       <c r="P6">
-        <v>1618.9</v>
+        <v>1200</v>
       </c>
       <c r="Q6">
-        <v>0.03257475149905429</v>
+        <v>0.02510591558135886</v>
       </c>
       <c r="R6">
-        <v>0.3993635444162124</v>
+        <v>8.391608391608392</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1181,73 +1181,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>6618.1</v>
+        <v>8384</v>
       </c>
       <c r="V6">
-        <v>0.1331663246005876</v>
+        <v>0.1754066635284272</v>
       </c>
       <c r="W6">
-        <v>0.1934349411158405</v>
+        <v>0.005720366103430619</v>
       </c>
       <c r="X6">
-        <v>0.09430071147265508</v>
+        <v>0.07594425998795647</v>
       </c>
       <c r="Y6">
-        <v>0.0991342296431854</v>
+        <v>-0.07022389388452585</v>
       </c>
       <c r="Z6">
-        <v>1.886325504602769</v>
+        <v>0.9199480494996097</v>
       </c>
       <c r="AA6">
-        <v>0.1040970263933122</v>
+        <v>0.03816434102973781</v>
       </c>
       <c r="AB6">
-        <v>0.07418798709095636</v>
+        <v>0.0611297035486161</v>
       </c>
       <c r="AC6">
-        <v>0.02990903930235586</v>
+        <v>-0.0229653625188783</v>
       </c>
       <c r="AD6">
-        <v>20458</v>
+        <v>17829</v>
       </c>
       <c r="AE6">
-        <v>1011.734556554644</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>21469.73455655464</v>
+        <v>17829</v>
       </c>
       <c r="AG6">
-        <v>14851.63455655464</v>
+        <v>9445</v>
       </c>
       <c r="AH6">
-        <v>0.3016779259636733</v>
+        <v>0.2716737903133642</v>
       </c>
       <c r="AI6">
-        <v>0.4617411892813132</v>
+        <v>0.4801001723395089</v>
       </c>
       <c r="AJ6">
-        <v>0.2300808464460399</v>
+        <v>0.1649997816307813</v>
       </c>
       <c r="AK6">
-        <v>0.3724152361924808</v>
+        <v>0.3284988870339455</v>
       </c>
       <c r="AL6">
-        <v>568</v>
+        <v>386</v>
       </c>
       <c r="AM6">
-        <v>568</v>
+        <v>386</v>
       </c>
       <c r="AN6">
-        <v>5.054103463609862</v>
+        <v>8.865738438587767</v>
       </c>
       <c r="AO6">
-        <v>6.544014084507042</v>
+        <v>4.466321243523316</v>
       </c>
       <c r="AP6">
-        <v>3.669063332317466</v>
+        <v>4.696668324216808</v>
       </c>
       <c r="AQ6">
-        <v>6.544014084507042</v>
+        <v>4.466321243523316</v>
       </c>
     </row>
     <row r="7">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Legal &amp; General Group Plc (LSE:LGEN)</t>
+          <t>Hansard Global Plc (LSE:HSD)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1267,49 +1267,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.114</v>
+        <v>-0.133</v>
       </c>
       <c r="E7">
-        <v>0.156</v>
-      </c>
-      <c r="F7">
-        <v>0.022</v>
+        <v>-0.213</v>
       </c>
       <c r="G7">
-        <v>0.1056792513714101</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="H7">
-        <v>0.1056792513714101</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="I7">
-        <v>0.1067857238113372</v>
+        <v>0.1207547169811321</v>
       </c>
       <c r="J7">
-        <v>0.08933458302059358</v>
+        <v>0.1156091551578811</v>
       </c>
       <c r="K7">
-        <v>2452.6</v>
+        <v>5.57</v>
       </c>
       <c r="L7">
-        <v>0.08602354195603069</v>
+        <v>0.08757861635220127</v>
       </c>
       <c r="M7">
-        <v>1242.8</v>
+        <v>7.43</v>
       </c>
       <c r="N7">
-        <v>0.05215712607016955</v>
+        <v>0.08898203592814372</v>
       </c>
       <c r="O7">
-        <v>0.5067275544320313</v>
+        <v>1.333931777378815</v>
       </c>
       <c r="P7">
-        <v>1242.8</v>
+        <v>7.43</v>
       </c>
       <c r="Q7">
-        <v>0.05215712607016955</v>
+        <v>0.08898203592814372</v>
       </c>
       <c r="R7">
-        <v>0.5067275544320313</v>
+        <v>1.333931777378815</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1318,73 +1315,67 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>18075.3</v>
+        <v>49</v>
       </c>
       <c r="V7">
-        <v>0.7585739466174248</v>
+        <v>0.5868263473053892</v>
       </c>
       <c r="W7">
-        <v>0.2413620036411947</v>
+        <v>0.1609826589595376</v>
       </c>
       <c r="X7">
-        <v>0.08674446578426841</v>
+        <v>0.06232255270229763</v>
       </c>
       <c r="Y7">
-        <v>0.1546175378569263</v>
+        <v>0.09866010625723994</v>
       </c>
       <c r="Z7">
-        <v>-2.799146848480549</v>
+        <v>-3.854545454545454</v>
       </c>
       <c r="AA7">
-        <v>-0.2500606165224185</v>
+        <v>-0.4456207435176507</v>
       </c>
       <c r="AB7">
-        <v>0.07438610531648049</v>
+        <v>0.06051694865171065</v>
       </c>
       <c r="AC7">
-        <v>-0.3244467218388989</v>
+        <v>-0.5061376921693614</v>
       </c>
       <c r="AD7">
-        <v>5801</v>
+        <v>3.71</v>
       </c>
       <c r="AE7">
-        <v>497.2679277986365</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>6298.267927798636</v>
+        <v>3.71</v>
       </c>
       <c r="AG7">
-        <v>-11777.03207220136</v>
+        <v>-45.29</v>
       </c>
       <c r="AH7">
-        <v>0.2090623353311875</v>
+        <v>0.04254099300538929</v>
       </c>
       <c r="AI7">
-        <v>0.3595873014196146</v>
+        <v>0.1036023457134879</v>
       </c>
       <c r="AJ7">
-        <v>-0.9772685599000418</v>
+        <v>-1.185291808427113</v>
       </c>
       <c r="AK7">
-        <v>21.02921003418326</v>
+        <v>3.433661865049281</v>
       </c>
       <c r="AL7">
-        <v>288.5</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>288.5</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1.821178538913132</v>
-      </c>
-      <c r="AO7">
-        <v>10.76949740034662</v>
+        <v>0.4684343434343434</v>
       </c>
       <c r="AP7">
-        <v>-3.697307026716907</v>
-      </c>
-      <c r="AQ7">
-        <v>10.76949740034662</v>
+        <v>-5.718434343434343</v>
       </c>
     </row>
     <row r="8">
@@ -1395,7 +1386,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hansard Global Plc (LSE:HSD)</t>
+          <t>Legal &amp; General Group Plc (LSE:LGEN)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1404,115 +1395,124 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.07780000000000001</v>
+        <v>0.0354</v>
       </c>
       <c r="E8">
-        <v>-0.111</v>
+        <v>0.0409</v>
+      </c>
+      <c r="F8">
+        <v>0.05690000000000001</v>
       </c>
       <c r="G8">
-        <v>0.06682847896440129</v>
+        <v>0.171672798782035</v>
       </c>
       <c r="H8">
-        <v>0.06682847896440129</v>
+        <v>0.171672798782035</v>
       </c>
       <c r="I8">
-        <v>0.06522611604988302</v>
+        <v>0.1123181510614903</v>
       </c>
       <c r="J8">
-        <v>0.06522611604988302</v>
+        <v>0.09403086484639799</v>
       </c>
       <c r="K8">
-        <v>5.85</v>
+        <v>1547.7</v>
       </c>
       <c r="L8">
-        <v>0.04733009708737864</v>
+        <v>0.08181616341030196</v>
       </c>
       <c r="M8">
-        <v>7.62</v>
+        <v>1337.2</v>
       </c>
       <c r="N8">
-        <v>0.1001314060446781</v>
+        <v>0.06198086621180657</v>
       </c>
       <c r="O8">
-        <v>1.302564102564103</v>
+        <v>0.8639917296633713</v>
       </c>
       <c r="P8">
-        <v>7.62</v>
+        <v>1297.6</v>
       </c>
       <c r="Q8">
-        <v>0.1001314060446781</v>
+        <v>0.06014535746069415</v>
       </c>
       <c r="R8">
-        <v>1.302564102564103</v>
+        <v>0.8384053757188085</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>39.59999999999991</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.02961411905474119</v>
       </c>
       <c r="U8">
-        <v>51.1</v>
+        <v>26868.4</v>
       </c>
       <c r="V8">
-        <v>0.6714848883048621</v>
+        <v>1.245383417383566</v>
       </c>
       <c r="W8">
-        <v>0.1555851063829787</v>
+        <v>0.1390178836083391</v>
       </c>
       <c r="X8">
-        <v>0.07578980439326696</v>
+        <v>0.07438955011683683</v>
       </c>
       <c r="Y8">
-        <v>0.07979530198971174</v>
+        <v>0.06462833349150228</v>
       </c>
       <c r="Z8">
-        <v>-3.925711347903818</v>
+        <v>-15.50557377049179</v>
       </c>
       <c r="AA8">
-        <v>-0.2560589039567172</v>
+        <v>-1.458002511578968</v>
       </c>
       <c r="AB8">
-        <v>0.07486017374035761</v>
+        <v>0.06108083801922159</v>
       </c>
       <c r="AC8">
-        <v>-0.3309190776970747</v>
+        <v>-1.519083349598189</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>7238.4</v>
       </c>
       <c r="AE8">
-        <v>1.615260281172299</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.615260281172299</v>
+        <v>7238.4</v>
       </c>
       <c r="AG8">
-        <v>-49.4847397188277</v>
+        <v>-19630</v>
       </c>
       <c r="AH8">
-        <v>0.0207843385627008</v>
+        <v>0.251221679253665</v>
       </c>
       <c r="AI8">
-        <v>0.04460164772064458</v>
+        <v>0.3824175824175824</v>
       </c>
       <c r="AJ8">
-        <v>-1.859261912002918</v>
+        <v>-10.09565932935609</v>
       </c>
       <c r="AK8">
-        <v>3.324528386360325</v>
+        <v>2.472167648984938</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>279.8</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>279.8</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3.347236994219653</v>
+      </c>
+      <c r="AO8">
+        <v>7.593638313080771</v>
       </c>
       <c r="AP8">
-        <v>-5.563208512515763</v>
+        <v>-9.077456647398844</v>
+      </c>
+      <c r="AQ8">
+        <v>7.593638313080771</v>
       </c>
     </row>
   </sheetData>
